--- a/BackbaseTests.xlsx
+++ b/BackbaseTests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -378,12 +378,18 @@
       <t/>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">I guess that the dates must be correct in this scenario!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I guess I need to delete the computer right  ? </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,8 +434,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +478,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -554,11 +580,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -590,9 +617,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -608,17 +632,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1122,7 +1154,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,17 +1164,18 @@
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1177,7 +1210,7 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1199,7 +1232,7 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1239,7 +1272,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1251,7 +1284,7 @@
       <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1259,7 +1292,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1271,7 +1304,7 @@
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>2</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1279,27 +1312,27 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>2</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="22">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1311,11 +1344,14 @@
       <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>2</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>20</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1328,10 +1364,10 @@
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="19">
         <v>1</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1346,12 +1382,12 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="19">
         <v>2</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1380,10 +1416,10 @@
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="19">
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1398,12 +1434,12 @@
       <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="19">
         <v>2</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1422,8 +1458,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:7" ht="203.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>3</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1441,9 +1477,12 @@
       <c r="F17" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="G17" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1462,8 +1501,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+    <row r="19" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>5</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1482,8 +1521,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+    <row r="20" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>6</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1502,8 +1541,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+    <row r="21" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>7</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1522,7 +1561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
   </sheetData>
@@ -1643,7 +1682,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
